--- a/Teamproject/second/221101_Jin아이디어.xlsx
+++ b/Teamproject/second/221101_Jin아이디어.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\미니프로젝트\마지막~\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\Teamproject\second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76A23F1-50D0-49DA-90F2-856120253C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D553C-5E96-4884-8322-25A8A4BD7F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="96" windowWidth="13608" windowHeight="12240" activeTab="1" xr2:uid="{CD3CA591-8054-4158-8641-250664628DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CD3CA591-8054-4158-8641-250664628DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2296,7 +2296,7 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>190995</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4860177" cy="3653693"/>
+    <xdr:ext cx="7343677" cy="4319003"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="TextBox 46">
@@ -2311,7 +2311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="286987" y="21776377"/>
-          <a:ext cx="4860177" cy="3653693"/>
+          <a:ext cx="7343677" cy="4319003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2486,9 +2486,70 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1500"/>
-            <a:t>머신러닝기술을 어디에 더하면 될까</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1500"/>
+            <a:t>머신러닝기술을 어디에 더하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="0"/>
+            <a:t>될까</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+            <a:t> -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="0" baseline="0"/>
+            <a:t>인사이트를 어떤 걸 뽑아낼지 회의 필요할 듯</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+            <a:t>??</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="0" baseline="0"/>
+            <a:t>점포가 새로 들어왔을 때 손익분기점</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+            <a:t>?, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="0" baseline="0"/>
+            <a:t>걸리는 기간 예측</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="0" baseline="0"/>
+            <a:t>최고 매출 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+            <a:t>top 20 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="0" baseline="0"/>
+            <a:t>뽑아서 기준 설정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="0" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="0" baseline="0"/>
+            <a:t>전체 매장 매출 확인</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1500" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2597,7 +2658,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1500"/>
-            <a:t>지마켓에서 당근가격을 매일아침</a:t>
+            <a:t>지마켓에서 당근가격을 매일 아침 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1500"/>
@@ -2615,7 +2676,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1500"/>
-            <a:t>번가에서 당근가격을 매일 아침</a:t>
+            <a:t>번가에서 당근가격을 매일 아침 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1500"/>
@@ -3107,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE474F-4CE0-4AD1-8ADF-2FE20FFDE4C1}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
